--- a/Pandas/read/input.xlsx
+++ b/Pandas/read/input.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
   <si>
     <t>switch</t>
   </si>
@@ -554,7 +554,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,9 +655,7 @@
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
